--- a/08.Miscelleneous/AMIG Fraud Scenario tracker.xlsx
+++ b/08.Miscelleneous/AMIG Fraud Scenario tracker.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
   <si>
     <t>Scenario</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Multiple claim and payment done for same cause, same vendor, same amount</t>
-  </si>
-  <si>
-    <t>Check Report Date time difference</t>
   </si>
   <si>
     <t>Advisory Allowance Fraud</t>
@@ -153,10 +150,27 @@
 Also, need the external D&amp;B data to determine general contractor </t>
   </si>
   <si>
-    <t>We can not use Insured ID as there is no such column/feature as of now; We can do for Policy Number if that fulfils the requirement.  Is there any field on the contact details which uniquely defines it ?</t>
-  </si>
-  <si>
     <t>Done for claimant/receiver; We can not use Insured ID as there is no such column/feature as of now; We can do for Policy Number if that fulfils the requirement.  Is there any field on the contact details which uniquely defines it ?</t>
+  </si>
+  <si>
+    <t>Users(Managers/ Adjusters) changing the Authority Limits Frequently</t>
+  </si>
+  <si>
+    <t>a)Finding users with role as Manager
+b)Keeping Track on the change in Authority limits of the Adjusters
+c)Find users who has access to Change the Authority Limits i.e., Who has role 'User Admin' Assigned to them.</t>
+  </si>
+  <si>
+    <t>For every claim who claimed ?</t>
+  </si>
+  <si>
+    <t>Created mean and sd for the cause and decided a thresold over which there will be possibility of fraud. Then using frequency graph identify the adjustor doing it more often.</t>
+  </si>
+  <si>
+    <t>No such case in Pekin Data</t>
+  </si>
+  <si>
+    <t>Indu is working on data collection</t>
   </si>
 </sst>
 </file>
@@ -276,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -303,6 +317,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -313,16 +337,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,10 +677,10 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -679,7 +700,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -698,26 +719,26 @@
         <v>1</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="25.2" x14ac:dyDescent="0.2">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -731,130 +752,130 @@
         <v>26</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>5</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H5" s="21"/>
       <c r="M5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="25.2" x14ac:dyDescent="0.2">
-      <c r="B6" s="14"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>42</v>
+      </c>
       <c r="M6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.2">
-      <c r="B8" s="16"/>
-      <c r="C8" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="25.2" x14ac:dyDescent="0.2">
+      <c r="B8" s="20"/>
+      <c r="C8" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
@@ -862,112 +883,134 @@
         <v>3</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="63" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="63" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="7">
-        <v>4</v>
+        <v>31</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="M14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.2">
+      <c r="B16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E16">
       <formula1>$M$4:$M$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F15">
       <formula1>$M$7:$M$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G16">
       <formula1>$M$12:$M$14</formula1>
     </dataValidation>
   </dataValidations>

--- a/08.Miscelleneous/AMIG Fraud Scenario tracker.xlsx
+++ b/08.Miscelleneous/AMIG Fraud Scenario tracker.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
   <si>
     <t>Scenario</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>Indu is working on data collection</t>
+  </si>
+  <si>
+    <t>Adjustor- Receiver fraud pair</t>
+  </si>
+  <si>
+    <t>Assumption</t>
+  </si>
+  <si>
+    <t>First reserve as proxy to claimed amount</t>
   </si>
 </sst>
 </file>
@@ -237,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -284,6 +293,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -316,7 +336,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -327,8 +346,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -336,13 +355,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -677,10 +699,10 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -691,27 +713,27 @@
     <col min="4" max="4" width="34.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.88671875" style="2" customWidth="1"/>
-    <col min="9" max="12" width="9.109375" style="1"/>
-    <col min="13" max="13" width="5.77734375" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="7" max="8" width="22.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="37.88671875" style="2" customWidth="1"/>
+    <col min="10" max="13" width="9.109375" style="1"/>
+    <col min="14" max="14" width="5.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I2" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
@@ -730,59 +752,64 @@
       <c r="G4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="25.2" x14ac:dyDescent="0.2">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="1:14" ht="25.2" x14ac:dyDescent="0.2">
+      <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="M5" s="1" t="s">
+      <c r="G5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="22"/>
+      <c r="N5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="25.2" x14ac:dyDescent="0.2">
-      <c r="B6" s="18"/>
-      <c r="C6" s="9" t="s">
+    <row r="6" spans="1:14" ht="25.2" x14ac:dyDescent="0.2">
+      <c r="B6" s="21"/>
+      <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
-      <c r="B7" s="19" t="s">
+    <row r="7" spans="1:14" ht="88.2" x14ac:dyDescent="0.2">
+      <c r="B7" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -798,45 +825,40 @@
       <c r="G7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="20"/>
-      <c r="C8" s="15" t="s">
-        <v>23</v>
+      <c r="C8" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>6</v>
+      <c r="H8" s="8"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:14" ht="25.2" x14ac:dyDescent="0.2">
+      <c r="B9" s="19"/>
+      <c r="C9" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>28</v>
@@ -844,21 +866,24 @@
       <c r="G9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
+      <c r="H9" s="8"/>
+      <c r="I9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>28</v>
@@ -866,57 +891,60 @@
       <c r="G10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H10" s="8"/>
+      <c r="I10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>25</v>
+        <v>11</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="63" x14ac:dyDescent="0.2">
+      <c r="H11" s="8"/>
+      <c r="I11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="63" x14ac:dyDescent="0.2">
+      <c r="H12" s="8"/>
+      <c r="I12" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="63" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
@@ -924,43 +952,47 @@
         <v>3</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="25.2" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="63" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H14" s="8"/>
+      <c r="I14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
@@ -973,45 +1005,70 @@
       <c r="G15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.2">
-      <c r="B16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="17"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="8"/>
+      <c r="I16" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="75.599999999999994" x14ac:dyDescent="0.2">
+      <c r="B17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E16">
-      <formula1>$M$4:$M$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E17">
+      <formula1>$N$4:$N$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F15">
-      <formula1>$M$7:$M$10</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F16">
+      <formula1>$N$7:$N$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G16">
-      <formula1>$M$12:$M$14</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G17">
+      <formula1>$N$13:$N$15</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/08.Miscelleneous/AMIG Fraud Scenario tracker.xlsx
+++ b/08.Miscelleneous/AMIG Fraud Scenario tracker.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="6276"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19176" windowHeight="6276"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027" calcOnSave="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
   <si>
     <t>Scenario</t>
   </si>
@@ -173,13 +174,25 @@
     <t>Indu is working on data collection</t>
   </si>
   <si>
-    <t>Adjustor- Receiver fraud pair</t>
-  </si>
-  <si>
     <t>Assumption</t>
   </si>
   <si>
     <t>First reserve as proxy to claimed amount</t>
+  </si>
+  <si>
+    <t>Adjustor- Receiver fraud Pair</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Insured</t>
+  </si>
+  <si>
+    <t>Claimant</t>
+  </si>
+  <si>
+    <t>Payto/Receiver</t>
   </si>
 </sst>
 </file>
@@ -350,22 +363,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,7 +715,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -753,7 +766,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>13</v>
@@ -763,7 +776,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="25.2" x14ac:dyDescent="0.2">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -780,13 +793,15 @@
         <v>31</v>
       </c>
       <c r="H5" s="8"/>
-      <c r="I5" s="22"/>
+      <c r="I5" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="N5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="25.2" x14ac:dyDescent="0.2">
-      <c r="B6" s="21"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
@@ -801,15 +816,15 @@
         <v>31</v>
       </c>
       <c r="H6" s="8"/>
-      <c r="I6" s="23" t="s">
-        <v>42</v>
+      <c r="I6" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="88.2" x14ac:dyDescent="0.2">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -834,9 +849,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="20"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
@@ -852,13 +867,13 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:14" ht="25.2" x14ac:dyDescent="0.2">
-      <c r="B9" s="19"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>28</v>
@@ -958,7 +973,7 @@
         <v>31</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>35</v>
@@ -1075,4 +1090,34 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/08.Miscelleneous/AMIG Fraud Scenario tracker.xlsx
+++ b/08.Miscelleneous/AMIG Fraud Scenario tracker.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19176" windowHeight="6276"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="6276"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$J$16</definedName>
+  </definedNames>
   <calcPr calcId="171027" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>Scenario</t>
   </si>
@@ -33,15 +35,9 @@
     <t>Sub-scenarios</t>
   </si>
   <si>
-    <t>Multiple Claims to Same Vendor/Party</t>
-  </si>
-  <si>
     <t>Complete</t>
   </si>
   <si>
-    <t>Multiple claim and payment done for same cause, same vendor, same amount</t>
-  </si>
-  <si>
     <t>Advisory Allowance Fraud</t>
   </si>
   <si>
@@ -69,9 +65,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>In-Progress</t>
-  </si>
-  <si>
     <t>Status of analysis</t>
   </si>
   <si>
@@ -79,9 +72,6 @@
   </si>
   <si>
     <t>Analysis Performed</t>
-  </si>
-  <si>
-    <t>Multiple claim done for slight change in address/ name</t>
   </si>
   <si>
     <t>Patterns of historical payments for each adjustor compared to the other adjustors for similar events/ causes</t>
@@ -168,9 +158,6 @@
     <t>Created mean and sd for the cause and decided a thresold over which there will be possibility of fraud. Then using frequency graph identify the adjustor doing it more often.</t>
   </si>
   <si>
-    <t>No such case in Pekin Data</t>
-  </si>
-  <si>
     <t>Indu is working on data collection</t>
   </si>
   <si>
@@ -183,16 +170,22 @@
     <t>Adjustor- Receiver fraud Pair</t>
   </si>
   <si>
+    <t>External Data</t>
+  </si>
+  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>Insured</t>
-  </si>
-  <si>
-    <t>Claimant</t>
-  </si>
-  <si>
-    <t>Payto/Receiver</t>
+    <t>Count of approvers</t>
+  </si>
+  <si>
+    <t>No Manual Payment in Pekin data and only one in CC Test Data</t>
+  </si>
+  <si>
+    <t>Experience level not available yet hence did this analysis overall.</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -239,7 +232,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,6 +248,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -362,14 +361,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -408,7 +401,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1157684</xdr:colOff>
+      <xdr:colOff>1040022</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>118263</xdr:rowOff>
     </xdr:to>
@@ -712,41 +705,51 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="39.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="46.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="34.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="22.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="37.88671875" style="2" customWidth="1"/>
-    <col min="10" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="5.77734375" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="1"/>
+    <col min="7" max="9" width="22.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.88671875" style="2" customWidth="1"/>
+    <col min="11" max="14" width="9.109375" style="1"/>
+    <col min="15" max="15" width="5.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J2" s="4"/>
+      <c r="O2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
@@ -754,370 +757,354 @@
         <v>1</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="88.2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="25.2" x14ac:dyDescent="0.2">
-      <c r="B5" s="20" t="s">
-        <v>2</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H5" s="8"/>
-      <c r="I5" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="25.2" x14ac:dyDescent="0.2">
+      <c r="I5" s="8"/>
+      <c r="J5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B6" s="20"/>
       <c r="C6" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H6" s="8"/>
-      <c r="I6" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="88.2" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>22</v>
+      <c r="I6" s="8"/>
+      <c r="J6" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="25.2" x14ac:dyDescent="0.2">
+      <c r="B7" s="21"/>
+      <c r="C7" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="75.599999999999994" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="22"/>
       <c r="C8" s="7" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="37.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" ht="25.2" x14ac:dyDescent="0.2">
-      <c r="B9" s="23"/>
-      <c r="C9" s="14" t="s">
-        <v>23</v>
-      </c>
+      <c r="B9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="75.599999999999994" x14ac:dyDescent="0.2">
+      <c r="I9" s="8"/>
+      <c r="J9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="25.2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
       <c r="B10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>28</v>
+        <v>2</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.2">
+      <c r="I10" s="8"/>
+      <c r="J10" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="63" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
       <c r="B11" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="7" t="s">
-        <v>8</v>
+      <c r="O11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="63" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="63" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
-        <v>10</v>
+      <c r="I12" s="8"/>
+      <c r="J12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="25.2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="63" x14ac:dyDescent="0.2">
-      <c r="B14" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="75.599999999999994" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>9</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="25.2" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="75.599999999999994" x14ac:dyDescent="0.2">
-      <c r="B17" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17" t="s">
+      <c r="H16" s="1" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B9"/>
+  <mergeCells count="1">
+    <mergeCell ref="B5:B7"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E17">
-      <formula1>$N$4:$N$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F14">
+      <formula1>$O$5:$O$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F16">
-      <formula1>$N$7:$N$11</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:H15">
+      <formula1>$O$11:$O$13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G17">
-      <formula1>$N$13:$N$15</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E16">
+      <formula1>$O$2:$O$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>